--- a/test_cases/PE-16/TC-1602.xlsx
+++ b/test_cases/PE-16/TC-1602.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santi\Desktop\Test_Cases\PE-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEE8D374-865C-43D9-B621-7D01651B3B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E672EF9-BD75-4139-B5BB-4C2FAAAF73AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -179,24 +179,12 @@
     <t>Adress = entre independencia y Chile</t>
   </si>
   <si>
-    <t>City = Quilmes</t>
-  </si>
-  <si>
-    <t>State = Buenos Aires</t>
-  </si>
-  <si>
     <t>Postal = 6435</t>
   </si>
   <si>
-    <t>Country = Argentina</t>
-  </si>
-  <si>
     <t>Phone = 1126547843</t>
   </si>
   <si>
-    <t>First Name = (vacio)</t>
-  </si>
-  <si>
     <t>User not created</t>
   </si>
   <si>
@@ -206,12 +194,6 @@
     <t>User is not created</t>
   </si>
   <si>
-    <t>Enter the dates except in one camp that is First Name</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Additional Information = I like music</t>
   </si>
   <si>
@@ -224,7 +206,22 @@
     <t>Test if user not complete the required fields</t>
   </si>
   <si>
-    <t>Verify validation from the form when a obligatory camp is not fulled</t>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Country = EEUU</t>
+  </si>
+  <si>
+    <t>State = Florida</t>
+  </si>
+  <si>
+    <t>City = Miami</t>
+  </si>
+  <si>
+    <t>Complete form with the test data</t>
+  </si>
+  <si>
+    <t>Verify validation from the form when a obligatory field is not fulled</t>
   </si>
 </sst>
 </file>
@@ -779,32 +776,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1126,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="55" t="s">
-        <v>61</v>
+      <c r="D1" s="47" t="s">
+        <v>55</v>
       </c>
       <c r="E1" s="39"/>
     </row>
@@ -1168,22 +1165,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1195,44 +1192,44 @@
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51" t="s">
+      <c r="J3" s="49"/>
+      <c r="K3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="51"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:23" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F4" s="2"/>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="49" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="49" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="49" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="50"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="1:23" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
@@ -1379,32 +1376,31 @@
         <v>38</v>
       </c>
       <c r="D9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
       <c r="I9" s="5"/>
       <c r="J9" s="3"/>
       <c r="K9" s="5"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
@@ -1419,10 +1415,10 @@
       <c r="A11" s="44"/>
       <c r="B11" s="1"/>
       <c r="D11" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1438,10 +1434,10 @@
       <c r="A12" s="44"/>
       <c r="B12" s="1"/>
       <c r="D12" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1449,132 +1445,132 @@
       <c r="A13" s="44"/>
       <c r="B13" s="1"/>
       <c r="D13" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52" t="s">
+      <c r="J13" s="50"/>
+      <c r="K13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52" t="s">
+      <c r="L13" s="50"/>
+      <c r="M13" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="52"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="1"/>
       <c r="D14" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="1"/>
       <c r="D15" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="1"/>
       <c r="D16" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="1"/>
       <c r="D17" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="1"/>
       <c r="D18" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="1"/>
       <c r="D19" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1582,10 +1578,10 @@
       <c r="A20" s="44"/>
       <c r="B20" s="1"/>
       <c r="D20" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1593,22 +1589,16 @@
       <c r="A21" s="44"/>
       <c r="B21" s="1"/>
       <c r="D21" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="1"/>
-      <c r="D22" s="4">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1622,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
@@ -1678,16 +1668,16 @@
       </c>
       <c r="E30" s="38"/>
     </row>
-    <row r="31" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>2</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E31" s="38"/>
     </row>
@@ -1700,7 +1690,7 @@
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E32" s="38"/>
     </row>
@@ -1708,24 +1698,24 @@
       <c r="A33" s="17">
         <v>4</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
     </row>
     <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1737,18 +1727,26 @@
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K13:L13"/>
@@ -1760,22 +1758,14 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1783,18 +1773,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1930,18 +1920,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test_cases/PE-16/TC-1602.xlsx
+++ b/test_cases/PE-16/TC-1602.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E672EF9-BD75-4139-B5BB-4C2FAAAF73AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6E7F8D-A93B-4738-BBB2-DDD45E7E54F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -101,9 +99,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>Tester: Sam Peters</t>
-  </si>
-  <si>
     <t>Tester: Jane Williams</t>
   </si>
   <si>
@@ -134,9 +129,6 @@
     <t>As Expected</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Not executed</t>
   </si>
   <si>
@@ -161,9 +153,6 @@
     <t>Title = Mr</t>
   </si>
   <si>
-    <t>Email = lean31@gmail.com</t>
-  </si>
-  <si>
     <t>Password = dasd123</t>
   </si>
   <si>
@@ -222,6 +211,15 @@
   </si>
   <si>
     <t>Verify validation from the form when a obligatory field is not fulled</t>
+  </si>
+  <si>
+    <t>Indurain Moneo Ignacio</t>
+  </si>
+  <si>
+    <t>Tester: Indurain Moneo Ignacio</t>
+  </si>
+  <si>
+    <t>The user is created without completing the required fields</t>
   </si>
 </sst>
 </file>
@@ -636,7 +634,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -713,9 +711,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,6 +774,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,20 +798,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1123,119 +1130,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:23" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="G2" s="51" t="s">
+      <c r="D2" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="G2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49" t="s">
+      <c r="L3" s="53"/>
+      <c r="M3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="49"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="53"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="52" t="s">
+      <c r="J4" s="51"/>
+      <c r="K4" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="51"/>
+      <c r="M4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="53"/>
-    </row>
-    <row r="5" spans="1:23" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="N4" s="51"/>
+    </row>
+    <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
@@ -1243,28 +1253,28 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="K5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="M5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1272,31 +1282,27 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="15" t="s">
+      <c r="K6" s="15"/>
+      <c r="L6" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
@@ -1310,29 +1316,25 @@
         <v>10</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="15" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -1343,43 +1345,39 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="K8" s="15"/>
+      <c r="L8" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="5"/>
@@ -1389,19 +1387,17 @@
       <c r="K9" s="5"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
       <c r="I10" s="5"/>
@@ -1411,14 +1407,14 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
       <c r="B11" s="1"/>
       <c r="D11" s="4">
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1430,208 +1426,210 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
       <c r="B12" s="1"/>
       <c r="D12" s="4">
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
       <c r="B13" s="1"/>
       <c r="D13" s="4">
         <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="50"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="G13" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="54"/>
+    </row>
+    <row r="14" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
       <c r="B14" s="1"/>
       <c r="D14" s="4">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="G14" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
       <c r="B15" s="1"/>
       <c r="D15" s="4">
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
       <c r="B16" s="1"/>
       <c r="D16" s="4">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
       <c r="B17" s="1"/>
       <c r="D17" s="4">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
       <c r="B18" s="1"/>
       <c r="D18" s="4">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
       <c r="B19" s="1"/>
       <c r="D19" s="4">
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
       <c r="B20" s="1"/>
       <c r="D20" s="4">
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
       <c r="B21" s="1"/>
       <c r="D21" s="4">
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="43"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="43"/>
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+      <c r="B25" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="21" t="s">
@@ -1641,98 +1639,112 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E29" s="40"/>
+    </row>
+    <row r="30" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>1</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="38"/>
-    </row>
-    <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>2</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="37"/>
+    </row>
+    <row r="32" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>3</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>4</v>
       </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-    </row>
-    <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+    </row>
+    <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
+  <mergeCells count="40">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
@@ -1747,25 +1759,12 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1773,18 +1772,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1920,18 +1919,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test_cases/PE-16/TC-1602.xlsx
+++ b/test_cases/PE-16/TC-1602.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6E7F8D-A93B-4738-BBB2-DDD45E7E54F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50DA0C-4782-4C5B-A0BE-9FBE4D43AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
+    <sheet name="DF-01" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -126,9 +127,6 @@
     <t>Site should open</t>
   </si>
   <si>
-    <t>As Expected</t>
-  </si>
-  <si>
     <t>Not executed</t>
   </si>
   <si>
@@ -219,14 +217,92 @@
     <t>Tester: Indurain Moneo Ignacio</t>
   </si>
   <si>
-    <t>The user is created without completing the required fields</t>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description / Overview</t>
+  </si>
+  <si>
+    <t>Reproduction Steps</t>
+  </si>
+  <si>
+    <t>1- Open the application page: http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>2- Click Sign In</t>
+  </si>
+  <si>
+    <t>3- Click Register here</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Incidence / Severity / Probability of reproduction</t>
+  </si>
+  <si>
+    <t>100% reproduction rate</t>
+  </si>
+  <si>
+    <t>Story and Acceptance Criteria affected</t>
+  </si>
+  <si>
+    <t>Affected User Story: US-2</t>
+  </si>
+  <si>
+    <t>Browsers tested</t>
+  </si>
+  <si>
+    <t>Google Chrome, v107</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>QA environment, http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>TC-1602 covers this scenario</t>
+  </si>
+  <si>
+    <t>DF-01</t>
+  </si>
+  <si>
+    <t>Register User: The user is created without completing the required fields</t>
+  </si>
+  <si>
+    <t>Without completing the required fields such as email, you can create a user</t>
+  </si>
+  <si>
+    <t>4- Complete Password and Confirm Password field</t>
+  </si>
+  <si>
+    <t>5- Click Register</t>
+  </si>
+  <si>
+    <t>A popup me indicating the fields that are missing to complete</t>
+  </si>
+  <si>
+    <t>The user is created without email</t>
+  </si>
+  <si>
+    <t>Critical severity - A user can register without email and without completing other fields</t>
+  </si>
+  <si>
+    <t>Not as Expected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +405,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +443,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -626,6 +723,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -634,7 +805,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -774,41 +945,82 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1131,7 +1343,7 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="38"/>
     </row>
@@ -1172,25 +1384,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="G2" s="49" t="s">
+      <c r="D2" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="G2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
     </row>
     <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -1202,44 +1414,44 @@
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53" t="s">
+      <c r="H3" s="50"/>
+      <c r="I3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53" t="s">
+      <c r="L3" s="50"/>
+      <c r="M3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="53"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
-      <c r="G4" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="50" t="s">
+      <c r="G4" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="54"/>
+      <c r="I4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="50" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="50" t="s">
+      <c r="L4" s="54"/>
+      <c r="M4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="51"/>
+      <c r="N4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
@@ -1284,22 +1496,22 @@
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="15" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1316,22 +1528,22 @@
         <v>10</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1345,25 +1557,25 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1371,13 +1583,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="5"/>
@@ -1392,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4">
         <v>4</v>
@@ -1414,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1433,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1444,25 +1656,25 @@
         <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="54"/>
+      <c r="G13" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
@@ -1471,19 +1683,19 @@
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
+      <c r="G14" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="74"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
@@ -1492,17 +1704,17 @@
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
@@ -1511,17 +1723,17 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
@@ -1530,17 +1742,17 @@
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
@@ -1549,17 +1761,17 @@
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
@@ -1568,7 +1780,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1579,7 +1791,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1590,7 +1802,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1610,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -1629,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="21" t="s">
@@ -1671,11 +1883,11 @@
         <v>2</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="37"/>
     </row>
@@ -1684,11 +1896,11 @@
         <v>3</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="37"/>
     </row>
@@ -1696,24 +1908,24 @@
       <c r="A33" s="17">
         <v>4</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="56"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
     </row>
     <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1725,15 +1937,16 @@
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K13:L13"/>
@@ -1745,45 +1958,212 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="I4:J4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425CB889-ECC2-4D57-B2FC-D135FA40194A}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+    <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="63"/>
+      <c r="B6" s="77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="75"/>
+      <c r="B7" s="77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="75"/>
+      <c r="B8" s="77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="B9" s="78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="64"/>
+      <c r="B15" s="65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:A24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1919,18 +2299,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test_cases/PE-16/TC-1602.xlsx
+++ b/test_cases/PE-16/TC-1602.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50DA0C-4782-4C5B-A0BE-9FBE4D43AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCBB7A1-FB06-4896-84C1-92078FE84A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>Navigate to http://demo.guru99.com</t>
-  </si>
-  <si>
     <t>Site should open</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>TC-1602 covers this scenario</t>
   </si>
   <si>
-    <t>DF-01</t>
-  </si>
-  <si>
     <t>Register User: The user is created without completing the required fields</t>
   </si>
   <si>
@@ -296,6 +290,18 @@
   </si>
   <si>
     <t>Not as Expected</t>
+  </si>
+  <si>
+    <t>Navigate to http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>DF-01: ''The user is created without completing the required fields'</t>
   </si>
 </sst>
 </file>
@@ -805,7 +811,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -944,36 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -997,29 +973,58 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1343,7 +1348,7 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1369,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="38"/>
     </row>
@@ -1384,25 +1389,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="48"/>
-      <c r="G2" s="52" t="s">
+      <c r="D2" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="G2" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
     </row>
     <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -1414,44 +1419,44 @@
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50" t="s">
+      <c r="J3" s="70"/>
+      <c r="K3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50" t="s">
+      <c r="L3" s="70"/>
+      <c r="M3" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="50"/>
+      <c r="N3" s="70"/>
     </row>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
-      <c r="G4" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="53" t="s">
+      <c r="G4" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="53" t="s">
+      <c r="J4" s="73"/>
+      <c r="K4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="53" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="54"/>
+      <c r="N4" s="73"/>
     </row>
     <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
@@ -1496,22 +1501,22 @@
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1528,22 +1533,22 @@
         <v>10</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1557,25 +1562,25 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1583,13 +1588,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="5"/>
@@ -1604,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4">
         <v>4</v>
@@ -1626,7 +1631,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1645,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1656,25 +1661,25 @@
         <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="51"/>
+      <c r="G13" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="71"/>
     </row>
     <row r="14" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
@@ -1683,19 +1688,19 @@
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
+      <c r="G14" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
@@ -1704,17 +1709,17 @@
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
@@ -1723,17 +1728,17 @@
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
@@ -1742,17 +1747,17 @@
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
@@ -1761,17 +1766,17 @@
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
@@ -1780,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1791,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1802,7 +1807,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1822,7 +1827,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -1841,7 +1846,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="21" t="s">
@@ -1870,11 +1875,11 @@
         <v>1</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="37"/>
     </row>
@@ -1883,11 +1888,11 @@
         <v>2</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="37"/>
     </row>
@@ -1896,11 +1901,11 @@
         <v>3</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="37"/>
     </row>
@@ -1908,24 +1913,24 @@
       <c r="A33" s="17">
         <v>4</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="56"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="69"/>
     </row>
     <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1937,30 +1942,6 @@
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="K17:L17"/>
@@ -1977,6 +1958,30 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1988,7 +1993,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1998,150 +2003,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B3" s="50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="60" t="s">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="63" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
-      <c r="B7" s="77" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="77" t="s">
+      <c r="B10" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="78" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="65" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="56" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="66" t="s">
+      <c r="B17" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="68" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
+      <c r="B19" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="67" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
+      <c r="B21" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="67" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
+      <c r="B23" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="70" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2152,18 +2157,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2299,18 +2304,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test_cases/PE-16/TC-1602.xlsx
+++ b/test_cases/PE-16/TC-1602.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCBB7A1-FB06-4896-84C1-92078FE84A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967687EF-D892-40DE-B545-77CE831D9DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Automation Status</t>
   </si>
   <si>
-    <t>Not Automated</t>
-  </si>
-  <si>
     <t>Regression 1</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>DF-01: ''The user is created without completing the required fields'</t>
+  </si>
+  <si>
+    <t>Automated</t>
   </si>
 </sst>
 </file>
@@ -985,41 +985,41 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1347,69 +1347,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="38"/>
     </row>
-    <row r="2" spans="1:23" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="G2" s="76" t="s">
+      <c r="D2" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="G2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1419,46 +1419,46 @@
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70" t="s">
+      <c r="L3" s="71"/>
+      <c r="M3" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70" t="s">
+      <c r="N3" s="71"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="2"/>
+      <c r="G4" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="70"/>
+      <c r="I4" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="70"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="2"/>
-      <c r="G4" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="72" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="70"/>
+      <c r="M4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="73"/>
-    </row>
-    <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="70"/>
+    </row>
+    <row r="5" spans="1:23" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
@@ -1470,28 +1470,28 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="I5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="K5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="M5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1499,27 +1499,27 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
@@ -1533,25 +1533,25 @@
         <v>10</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1</v>
       </c>
@@ -1562,39 +1562,39 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="5"/>
@@ -1604,12 +1604,12 @@
       <c r="K9" s="5"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4">
         <v>4</v>
@@ -1624,14 +1624,14 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="1"/>
       <c r="D11" s="4">
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1643,58 +1643,58 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="1"/>
       <c r="D12" s="4">
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="1"/>
       <c r="D13" s="4">
         <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="71"/>
-    </row>
-    <row r="14" spans="1:23" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="72"/>
+    </row>
+    <row r="14" spans="1:23" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="1"/>
       <c r="D14" s="4">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="66"/>
+      <c r="G14" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="74"/>
       <c r="I14" s="67"/>
       <c r="J14" s="67"/>
       <c r="K14" s="67"/>
@@ -1702,14 +1702,14 @@
       <c r="M14" s="67"/>
       <c r="N14" s="67"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="1"/>
       <c r="D15" s="4">
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="67"/>
@@ -1721,14 +1721,14 @@
       <c r="M15" s="67"/>
       <c r="N15" s="67"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="1"/>
       <c r="D16" s="4">
         <v>10</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="67"/>
@@ -1740,14 +1740,14 @@
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="1"/>
       <c r="D17" s="4">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="67"/>
@@ -1759,14 +1759,14 @@
       <c r="M17" s="67"/>
       <c r="N17" s="67"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="1"/>
       <c r="D18" s="4">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="67"/>
@@ -1778,170 +1778,194 @@
       <c r="M18" s="67"/>
       <c r="N18" s="67"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="1"/>
       <c r="D19" s="4">
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="1"/>
       <c r="D20" s="4">
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="1"/>
       <c r="D21" s="4">
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="32"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="33"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
     </row>
-    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="41" t="s">
         <v>23</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>24</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="40"/>
     </row>
-    <row r="30" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>1</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="37"/>
     </row>
-    <row r="31" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>2</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="37"/>
     </row>
-    <row r="32" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>3</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="37"/>
       <c r="D32" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="37"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>4</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="75"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="69"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="75"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="69"/>
-    </row>
-    <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="76"/>
+    </row>
+    <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="K17:L17"/>
@@ -1958,30 +1982,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1996,155 +1996,155 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="49"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
       <c r="B15" s="55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="49"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="49"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="49"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="49"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
       <c r="B24" s="60"/>
     </row>
@@ -2157,21 +2157,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -2303,24 +2288,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2336,4 +2319,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>